--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023SPWOL\Documents\GitHub\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>3주차</t>
   </si>
@@ -144,199 +144,237 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>UI/UX 구성요소 설계 및 제작
-UI/UX Web 퍼블리싱 기초</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>UI/UX Web 퍼블리싱 기초</t>
   </si>
   <si>
-    <t>UI/UX Web 퍼블리싱 기초
+    <t>프로그래밍 언어 활용</t>
+  </si>
+  <si>
+    <t>Web Project</t>
+  </si>
+  <si>
+    <t>하이브리드앱/PWA</t>
+  </si>
+  <si>
+    <t>과목종료일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쉐도잉 프로젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식 프로젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 레이아웃/상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ</t>
+  </si>
+  <si>
+    <t>DC PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹기초 + UI/UX개념 + 피그마</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 17회차 주별 상세일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 휴일: 12/25(성탄절), 1/1(신정),1/28-30(구정3일),3/3(3.1절대체휴일)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/6(금)5-8
+취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 PJ 작품발표회
+12/26(목) 5-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 언어 활용 (11/27)
+Web Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX Web 퍼블리싱 기초 (10/28)
 프로그래밍 언어 활용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>프로그래밍 언어 활용</t>
-  </si>
-  <si>
-    <t>프로그래밍 언어 활용
-Web Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web Project</t>
-  </si>
-  <si>
-    <t>Web Project
+    <t>Web Project (12/27)
 하이브리드앱/PWA</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>하이브리드앱/PWA</t>
-  </si>
-  <si>
-    <t>하이브리드앱/PWA
-모바일웹&amp;앱Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;앱Project</t>
+    <t>하이브리드앱/PWA (1/15)
+모바일웹&amp;웹Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;웹Project</t>
+  </si>
+  <si>
+    <t>모바일웹&amp;웹Project (2/11)
+UI/UX 디자인구성요소 설계 및 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX 디자인구성요소 설계 및 제작</t>
+  </si>
+  <si>
+    <t>2차 PJ 작품발표회
+2/10(월) 5-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/UX 디자인구성요소 설계 및 제작(2/27)
+웹 프론트엔드 개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>웹 프론트엔드 개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목종료일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쉐도잉 프로젝트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공식 프로젝트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1.</t>
-  </si>
-  <si>
-    <t>보그 PJ</t>
-  </si>
-  <si>
-    <t>파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발 (3/18)
+SPA Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPA Project</t>
+  </si>
+  <si>
+    <t>3차 PJ 작품발표회
+3/27(목) 3-8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료식
+4/4(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+와이어프레이밍(Balsamiq)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+와이어프레이밍 / 프로토타이핑(Figma)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 Javascript 기본</t>
-  </si>
-  <si>
-    <t>Vue JS 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
-프로토타이핑(Figma)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-프로토타이핑(Figma)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-와이어프레이밍(Balsamiq)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
+프로토타이핑(Figma) / Javascript 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본 / 제이쿼리 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용 / 제이쿼리 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue JS 기본
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue JS 응용
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1차 분석 / 설계
-와이어프레임 제출(수)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃코딩
-프로토타입 제출(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v1. / CGV PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
-Javascript 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃/상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 레이아웃/상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
+와이어프레임 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+프로토타이핑 1차 제출(금)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / 설계
+프로토타이핑 2차 제출(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -344,88 +382,88 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>1차 테스트/수정/배포
+2차 팀PJ 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 발표
+3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 테스트/수정/배포
+3차 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>1차 상세코딩
-팀PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩
-팀PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩
-팀PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩
-팀프로젝트 제출 및 발표(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용
-Vue JS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS응용 / jQuery 응용
-Vue JS 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC PJ</t>
-  </si>
-  <si>
-    <t>DC PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3주차</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹기초 + UI/UX개념 + 피그마</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 기반 프론트엔드(React,Vue) 웹&amp;앱 SW개발자 양성과정 17회차 주별 상세일정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 휴일: 12/25(성탄절), 1/1(신정),1/28-30(구정3일),3/3(3.1절대체휴일)</t>
+2차 팀PJ 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩 / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩
+보그 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩
+보그 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 프로토타이핑 / CGV PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +615,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -741,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,9 +816,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,9 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,6 +873,63 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,25 +951,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,8 +1269,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1211,41 +1291,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1253,13 +1333,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>9</v>
@@ -1269,119 +1349,118 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="23">
         <v>45561</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="D5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="23">
         <v>45562</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="30"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="23">
         <v>45565</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="23">
         <v>45569</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="30"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="23">
         <v>45572</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="23">
         <v>45573</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="24" t="s">
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <v>45575</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="23">
         <v>45576</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="29" t="s">
+      <c r="G8" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="6"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B9" s="38" t="s">
         <v>16</v>
       </c>
@@ -1398,784 +1477,799 @@
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>35</v>
+      <c r="G9" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="40" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L9" s="44"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B10" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="39">
         <v>45586</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="39">
         <v>45590</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="G10" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B11" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="39">
         <v>45593</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="39">
         <v>45597</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="41">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="G11" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="30">
         <v>45600</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="30">
         <v>45604</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="11" t="s">
+      <c r="H12" s="55"/>
+      <c r="I12" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>45607</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
         <v>45611</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="11" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>45614</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11">
         <v>45618</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="11" t="s">
+      <c r="G14" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>45621</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11">
         <v>45625</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="11" t="s">
+      <c r="G15" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>45628</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11">
         <v>45632</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="11" t="s">
+      <c r="G16" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>45635</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11">
         <v>45639</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="11" t="s">
+      <c r="G17" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>45642</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11">
         <v>45646</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16" t="s">
+      <c r="G18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="11" t="s">
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>45649</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
         <v>45653</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="G19" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>45656</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11">
         <v>45660</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="11" t="s">
+      <c r="G20" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>45663</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11">
         <v>45667</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="11" t="s">
+      <c r="G21" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>45670</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11">
         <v>45674</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="11" t="s">
+      <c r="G22" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>45677</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11">
         <v>45681</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="16" t="s">
+      <c r="G23" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B24" s="11" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>45684</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11">
         <v>45688</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B25" s="11" t="s">
+      <c r="G24" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>45691</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11">
         <v>45695</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B26" s="11" t="s">
+      <c r="G25" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>45698</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11">
         <v>45702</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="2:12" ht="55.5" customHeight="1">
-      <c r="B27" s="11" t="s">
+      <c r="J26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>45705</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11">
         <v>45709</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B28" s="11" t="s">
+      <c r="G27" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>45712</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11">
         <v>45716</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1">
-      <c r="B29" s="11" t="s">
+      <c r="G28" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>45720</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11">
         <v>45723</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="21">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1">
-      <c r="B30" s="11" t="s">
+      <c r="G29" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>45726</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="11">
         <v>45730</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="2:12" ht="51" customHeight="1">
-      <c r="B31" s="11" t="s">
+      <c r="G30" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>45733</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11">
         <v>45737</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" spans="2:12" ht="51" customHeight="1">
-      <c r="B32" s="11" t="s">
+      <c r="G31" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>45740</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11">
         <v>45744</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="2:12" ht="51" customHeight="1">
-      <c r="B33" s="11" t="s">
+      <c r="G32" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="2:12" ht="56.45" customHeight="1">
+      <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>45747</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="11">
         <v>45751</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="21"/>
+      <c r="G33" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
       <c r="C34" s="1"/>
@@ -2186,36 +2280,36 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="B36" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2322,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>3주차</t>
   </si>
@@ -464,6 +464,16 @@
   </si>
   <si>
     <t>도깨비 PJ 프로토타이핑 / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩 / CGV PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/22(금)
+2-4교시
+멘토링1차</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -930,6 +937,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,10 +961,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1449,7 +1456,7 @@
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="24"/>
@@ -1461,197 +1468,199 @@
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>45579</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="39">
+      <c r="D9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="38">
         <v>45583</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>45586</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="39">
+      <c r="D10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="38">
         <v>45590</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40" t="s">
+      <c r="H10" s="41"/>
+      <c r="I10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>45593</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="39">
+      <c r="D11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="38">
         <v>45597</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="44"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="38">
         <v>45600</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="30">
+      <c r="D12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="38">
         <v>45604</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="33" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="34"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="38">
         <v>45607</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="D13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="38">
         <v>45611</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="15" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="30">
         <v>45614</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="30">
         <v>45618</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="32">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="34" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B15" s="10" t="s">
@@ -1670,7 +1679,7 @@
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="14"/>
@@ -1702,7 +1711,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="46" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="14"/>
@@ -1715,7 +1724,7 @@
       <c r="K16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="34" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1736,7 +1745,7 @@
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="46" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="14"/>
@@ -1768,7 +1777,7 @@
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="46" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="14"/>
@@ -1800,10 +1809,10 @@
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="35" t="s">
         <v>61</v>
       </c>
       <c r="I19" s="15" t="s">
@@ -1834,7 +1843,7 @@
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="46" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="14"/>
@@ -1866,7 +1875,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="46" t="s">
         <v>39</v>
       </c>
       <c r="H21" s="14"/>
@@ -1898,7 +1907,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="46" t="s">
         <v>65</v>
       </c>
       <c r="H22" s="14"/>
@@ -1930,7 +1939,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H23" s="14"/>
@@ -1962,7 +1971,7 @@
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H24" s="17"/>
@@ -1994,7 +2003,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="14"/>
@@ -2026,10 +2035,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="35" t="s">
         <v>69</v>
       </c>
       <c r="I26" s="14" t="s">
@@ -2060,7 +2069,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="46" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="17"/>
@@ -2092,7 +2101,7 @@
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="46" t="s">
         <v>70</v>
       </c>
       <c r="H28" s="19"/>
@@ -2124,7 +2133,7 @@
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="46" t="s">
         <v>71</v>
       </c>
       <c r="H29" s="19"/>
@@ -2156,7 +2165,7 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="46" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="17"/>
@@ -2188,7 +2197,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="46" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="19"/>
@@ -2220,10 +2229,10 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="35" t="s">
         <v>74</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -2254,7 +2263,7 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="46" t="s">
         <v>73</v>
       </c>
       <c r="H33" s="19"/>
@@ -2267,7 +2276,7 @@
       <c r="K33" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="L33" s="36" t="s">
         <v>75</v>
       </c>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -330,11 +330,6 @@
   </si>
   <si>
     <t>HTML5 + CSS3 응용연습
-Javascript 기본 / 제이쿼리 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 응용연습
 Javascript 응용 / 제이쿼리 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -474,6 +469,11 @@
     <t>11/22(금)
 2-4교시
 멘토링1차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+Javascript 기본 / 제이쿼리 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,8 +961,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1277,7 +1283,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1489,7 +1495,7 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>44</v>
@@ -1521,7 +1527,7 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>45</v>
@@ -1553,7 +1559,7 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>46</v>
@@ -1585,10 +1591,10 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" s="42" t="s">
         <v>78</v>
@@ -1617,10 +1623,10 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>47</v>
@@ -1628,71 +1634,71 @@
       <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="38">
         <v>45614</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="30">
+      <c r="D14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="38">
         <v>45618</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="40">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="33" t="s">
+      <c r="H14" s="47"/>
+      <c r="I14" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="34" t="s">
-        <v>111</v>
+      <c r="L14" s="57" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="30">
         <v>45621</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="30">
         <v>45625</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="32">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="12" t="s">
+      <c r="H15" s="55"/>
+      <c r="I15" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="16"/>
+      <c r="K15" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="56"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B16" s="10" t="s">
@@ -1716,13 +1722,13 @@
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L16" s="34" t="s">
         <v>60</v>
@@ -1750,13 +1756,13 @@
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" s="16"/>
     </row>
@@ -1782,13 +1788,13 @@
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -1816,13 +1822,13 @@
         <v>61</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" s="16"/>
     </row>
@@ -1848,13 +1854,13 @@
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="16"/>
     </row>
@@ -1880,13 +1886,13 @@
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L21" s="16"/>
     </row>
@@ -1912,13 +1918,13 @@
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L22" s="16"/>
     </row>
@@ -1944,13 +1950,13 @@
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L23" s="16"/>
     </row>
@@ -1976,13 +1982,13 @@
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L24" s="16"/>
     </row>
@@ -2008,13 +2014,13 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L25" s="16"/>
     </row>
@@ -2045,10 +2051,10 @@
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -2077,10 +2083,10 @@
         <v>43</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2112,7 +2118,7 @@
         <v>50</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L28" s="18"/>
     </row>
@@ -2144,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2176,7 +2182,7 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2208,7 +2214,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -2242,7 +2248,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2274,7 +2280,7 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>75</v>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
   <si>
     <t>3주차</t>
   </si>
@@ -237,11 +237,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>12/6(금)5-8
-취업세미나</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 PJ 작품발표회
 12/26(목) 5-8</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -377,16 +372,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 테스트/수정/배포
-2차 팀PJ 주제선정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 상세코딩
-3차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 팀PJ 상세코딩
 3차 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -407,15 +392,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 팀PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 상세코딩
-2차 팀PJ 주제선정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>리액트 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -433,16 +409,6 @@
   </si>
   <si>
     <t>도깨비 PJ 와이어프레이밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ 상세코딩
-보그 PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ 상세코딩
-보그 PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -474,6 +440,47 @@
   <si>
     <t>HTML5 + CSS3 응용연습
 Javascript 기본 / 제이쿼리 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/28(금)5-8
+취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 테스트/수정/배포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vue JS 기본
+Javascript 응용 / 제이쿼리 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩
+보그 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 주제선정 / 분석,설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 주제선정
+2차 팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -940,6 +947,15 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,15 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1282,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1302,43 +1309,43 @@
     <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B5" s="22" t="s">
         <v>53</v>
       </c>
@@ -1389,7 +1396,7 @@
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
+    <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B6" s="22" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1424,7 @@
       </c>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
+    <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
       <c r="B7" s="22" t="s">
         <v>55</v>
       </c>
@@ -1445,7 +1452,7 @@
       </c>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
@@ -1473,7 +1480,7 @@
       </c>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B9" s="37" t="s">
         <v>16</v>
       </c>
@@ -1495,17 +1502,17 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="43"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B10" s="37" t="s">
         <v>0</v>
       </c>
@@ -1527,17 +1534,17 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="43"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B11" s="37" t="s">
         <v>1</v>
       </c>
@@ -1555,21 +1562,21 @@
         <v>5</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="39" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" s="43"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B12" s="37" t="s">
         <v>2</v>
       </c>
@@ -1591,17 +1598,17 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="39" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="43"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B13" s="37" t="s">
         <v>3</v>
       </c>
@@ -1623,17 +1630,17 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="43"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B14" s="37" t="s">
         <v>4</v>
       </c>
@@ -1655,280 +1662,278 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="39" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="29" t="s">
+      <c r="L14" s="49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="38">
         <v>45621</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="30">
+      <c r="D15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="38">
         <v>45625</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="40">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="31" t="s">
+      <c r="G15" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="56"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="10" t="s">
+      <c r="K15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="38">
         <v>45628</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="38">
         <v>45632</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="10" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="38">
         <v>45635</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="38">
         <v>45639</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="40">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="10" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="43"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="38">
         <v>45642</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="D18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="38">
         <v>45646</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="40">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="10" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="43"/>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="38">
         <v>45649</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="38">
         <v>45653</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="40">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="10" t="s">
+      <c r="G19" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="38">
         <v>45656</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="38">
         <v>45660</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="40">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="10" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="B21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="38">
         <v>45663</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="38">
         <v>45667</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" s="16"/>
-    </row>
-    <row r="22" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="10" t="s">
+      <c r="H21" s="41"/>
+      <c r="I21" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="43"/>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="30">
         <v>45670</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="D22" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="30">
         <v>45674</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" s="16"/>
-    </row>
-    <row r="23" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+      <c r="G22" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -1946,21 +1951,21 @@
         <v>5</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="16"/>
     </row>
-    <row r="24" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
@@ -1978,21 +1983,21 @@
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" s="16"/>
     </row>
-    <row r="25" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
@@ -2010,21 +2015,21 @@
         <v>5</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L25" s="16"/>
     </row>
-    <row r="26" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
@@ -2042,23 +2047,23 @@
         <v>5</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L26" s="16"/>
     </row>
-    <row r="27" spans="2:12" ht="56.45" customHeight="1">
+    <row r="27" spans="1:12" ht="56.45" customHeight="1">
       <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
@@ -2076,21 +2081,21 @@
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="2:12" ht="56.45" customHeight="1">
+    <row r="28" spans="1:12" ht="56.45" customHeight="1">
       <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
@@ -2108,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="14" t="s">
@@ -2118,11 +2123,13 @@
         <v>50</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="2:12" ht="56.45" customHeight="1">
+        <v>93</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="56.45" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="14" t="s">
@@ -2150,11 +2157,11 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="2:12" ht="56.45" customHeight="1">
+    <row r="30" spans="1:12" ht="56.45" customHeight="1">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -2172,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="14" t="s">
@@ -2182,11 +2189,11 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="2:12" ht="56.45" customHeight="1">
+    <row r="31" spans="1:12" ht="56.45" customHeight="1">
       <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="14" t="s">
@@ -2214,11 +2221,11 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L31" s="20"/>
     </row>
-    <row r="32" spans="2:12" ht="56.45" customHeight="1">
+    <row r="32" spans="1:12" ht="56.45" customHeight="1">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -2236,10 +2243,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>51</v>
@@ -2248,7 +2255,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2270,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="14" t="s">
@@ -2280,10 +2287,10 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2295,32 +2302,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>3주차</t>
   </si>
@@ -349,10 +349,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 분석 / 설계
 와이어프레임 제출(금)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -369,26 +365,6 @@
   </si>
   <si>
     <t>1차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 상세코딩
-3차 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 상세코딩
-3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 발표
-3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 테스트/수정/배포
-3차 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -470,17 +446,45 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 팀PJ 상세코딩
-3차 주제선정 / 분석,설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 팀PJ 주제선정
 2차 팀PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2차 팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 주제 가이드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 상세코딩
+3차 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 테스트/수정/배포
+3차 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 발표
+3차 기초코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 기초코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 기초코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1294,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1502,7 +1506,7 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>44</v>
@@ -1534,7 +1538,7 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>45</v>
@@ -1566,7 +1570,7 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>46</v>
@@ -1598,10 +1602,10 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" s="42" t="s">
         <v>77</v>
@@ -1630,10 +1634,10 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>47</v>
@@ -1662,16 +1666,16 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>48</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1696,13 +1700,13 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L15" s="43"/>
     </row>
@@ -1728,10 +1732,10 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" s="42" t="s">
         <v>79</v>
@@ -1760,10 +1764,10 @@
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" s="42" t="s">
         <v>80</v>
@@ -1792,10 +1796,10 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" s="42" t="s">
         <v>80</v>
@@ -1826,10 +1830,10 @@
         <v>60</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K19" s="42" t="s">
         <v>81</v>
@@ -1858,13 +1862,13 @@
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L20" s="43"/>
     </row>
@@ -1890,10 +1894,10 @@
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>82</v>
@@ -1901,69 +1905,69 @@
       <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="38">
         <v>45670</v>
       </c>
-      <c r="D22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="30">
+      <c r="D22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="38">
         <v>45674</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" s="33" t="s">
+      <c r="H22" s="41"/>
+      <c r="I22" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="30">
         <v>45677</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="D23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="30">
         <v>45681</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="H23" s="50"/>
+      <c r="I23" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="L23" s="16"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B24" s="10" t="s">
@@ -1987,10 +1991,10 @@
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>83</v>
@@ -2019,10 +2023,10 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>83</v>
@@ -2056,10 +2060,10 @@
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -2088,10 +2092,10 @@
         <v>43</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2120,13 +2124,13 @@
         <v>43</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
@@ -2157,7 +2161,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2189,7 +2193,7 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2221,7 +2225,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -2255,7 +2259,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2287,7 +2291,7 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>74</v>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
   <si>
     <t>3주차</t>
   </si>
@@ -259,14 +259,6 @@
   <si>
     <t>하이브리드앱/PWA (1/15)
 모바일웹&amp;웹Project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일웹&amp;웹Project</t>
-  </si>
-  <si>
-    <t>모바일웹&amp;웹Project (2/11)
-UI/UX 디자인구성요소 설계 및 제작</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -451,40 +443,53 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 팀PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 팀PJ 상세코딩
 3차 주제 가이드</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>3차 기초코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 기초코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일웹&amp;앱Project (2/11)
+UI/UX 디자인구성요소 설계 및 제작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>2차 팀PJ 상세코딩
 3차 주제선정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2차 팀PJ 상세코딩
+3차 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 테스트/수정/배포
+3차 주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 팀PJ 발표
 3차 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 테스트/수정/배포
-3차 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 팀PJ 발표
-3차 기초코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 기초코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 기초코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -957,9 +962,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,6 +981,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1315,41 +1320,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1506,13 +1511,13 @@
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>44</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L9" s="43"/>
     </row>
@@ -1538,13 +1543,13 @@
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L10" s="43"/>
     </row>
@@ -1570,13 +1575,13 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>46</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="43"/>
     </row>
@@ -1602,13 +1607,13 @@
       </c>
       <c r="H12" s="41"/>
       <c r="I12" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L12" s="43"/>
     </row>
@@ -1634,10 +1639,10 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>47</v>
@@ -1666,16 +1671,16 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>48</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1700,13 +1705,13 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L15" s="43"/>
     </row>
@@ -1732,13 +1737,13 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L16" s="43"/>
     </row>
@@ -1764,13 +1769,13 @@
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L17" s="43"/>
     </row>
@@ -1796,13 +1801,13 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L18" s="43"/>
     </row>
@@ -1830,13 +1835,13 @@
         <v>60</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L19" s="43"/>
     </row>
@@ -1862,13 +1867,13 @@
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L20" s="43"/>
     </row>
@@ -1894,13 +1899,13 @@
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L21" s="43"/>
     </row>
@@ -1926,112 +1931,112 @@
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K22" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="38">
         <v>45677</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="30">
+      <c r="D23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="38">
         <v>45681</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="48"/>
+      <c r="G23" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="38">
         <v>45684</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="38">
         <v>45688</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="40">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="16"/>
+      <c r="G24" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="30">
         <v>45691</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="30">
         <v>45695</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="16"/>
+      <c r="G25" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B26" s="10" t="s">
@@ -2051,19 +2056,19 @@
         <v>5</v>
       </c>
       <c r="G26" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>66</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>68</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -2085,17 +2090,17 @@
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2117,20 +2122,20 @@
         <v>5</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
@@ -2151,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="14" t="s">
@@ -2161,7 +2166,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2183,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="14" t="s">
@@ -2193,7 +2198,7 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2215,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="14" t="s">
@@ -2225,7 +2230,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -2247,10 +2252,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>51</v>
@@ -2259,7 +2264,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2281,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="14" t="s">
@@ -2291,10 +2296,10 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2306,32 +2311,32 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
     </row>
     <row r="47" spans="2:12">
       <c r="I47" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
   <si>
     <t>3주차</t>
   </si>
@@ -291,11 +291,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>수료식
-4/4(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 와이어프레이밍(Balsamiq)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -385,10 +380,6 @@
   </si>
   <si>
     <t>보그 PJ 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ 분석/설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -411,11 +402,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2/28(금)5-8
-취업세미나</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -452,10 +438,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3차 기초코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>모바일웹&amp;앱Project</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -479,17 +461,52 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>2차 팀PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/27(목)5-8
+취업세미나
+(날짜변경)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>2차 팀PJ 테스트/수정/배포
 3차 주제선정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2차 팀PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2차 팀PJ 발표
-3차 분석/설계</t>
+3차 주제선정 + 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 기초코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 프론트엔드 개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>27주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료식
+4/7(월)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -796,6 +813,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -811,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,9 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,6 +1021,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,8 +1045,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1296,10 +1382,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1478,7 +1564,7 @@
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="24"/>
@@ -1490,520 +1576,520 @@
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>45579</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="D9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="37">
         <v>45583</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="39" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="43"/>
+      <c r="K9" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>45586</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="D10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="37">
         <v>45590</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="39" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="43"/>
+      <c r="K10" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>45593</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="D11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="37">
         <v>45597</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="39" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="43"/>
+      <c r="K11" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>45600</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="D12" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="37">
         <v>45604</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="43"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>45607</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="D13" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="37">
         <v>45611</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="42" t="s">
+      <c r="H13" s="40"/>
+      <c r="I13" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="43"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>45614</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="D14" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="37">
         <v>45618</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="42" t="s">
+      <c r="H14" s="46"/>
+      <c r="I14" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="49" t="s">
-        <v>96</v>
+      <c r="L14" s="48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>45621</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="D15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="37">
         <v>45625</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="39" t="s">
+      <c r="H15" s="40"/>
+      <c r="I15" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="43"/>
+      <c r="K15" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>45628</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="D16" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="37">
         <v>45632</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="43"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>45635</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="D17" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="37">
         <v>45639</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="43"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="37">
         <v>45642</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="D18" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="37">
         <v>45646</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="43"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="37">
         <v>45649</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="38">
+      <c r="D19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="37">
         <v>45653</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="43"/>
+      <c r="I19" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="37">
         <v>45656</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="D20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="37">
         <v>45660</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="42" t="s">
+      <c r="H20" s="40"/>
+      <c r="I20" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="43"/>
+      <c r="K20" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>45663</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="D21" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="37">
         <v>45667</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="43"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="37">
         <v>45670</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="D22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="37">
         <v>45674</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22" s="43"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="37">
         <v>45677</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="D23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="37">
         <v>45681</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="43"/>
+      <c r="G23" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="37">
         <v>45684</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="D24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="37">
         <v>45688</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="43"/>
+      <c r="K24" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="A25" s="6"/>
@@ -2023,20 +2109,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57" t="s">
-        <v>93</v>
+      <c r="G25" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49" t="s">
+        <v>113</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="48"/>
+        <v>80</v>
+      </c>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B26" s="10" t="s">
@@ -2055,20 +2141,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>110</v>
+      <c r="G26" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>66</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>115</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -2089,18 +2175,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="45" t="s">
         <v>65</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="14" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L27" s="18"/>
     </row>
@@ -2121,7 +2207,7 @@
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="45" t="s">
         <v>67</v>
       </c>
       <c r="H28" s="19"/>
@@ -2129,13 +2215,13 @@
         <v>43</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
@@ -2155,8 +2241,8 @@
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="46" t="s">
-        <v>68</v>
+      <c r="G29" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="14" t="s">
@@ -2166,7 +2252,7 @@
         <v>50</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L29" s="20"/>
     </row>
@@ -2187,7 +2273,7 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="45" t="s">
         <v>68</v>
       </c>
       <c r="H30" s="17"/>
@@ -2198,7 +2284,7 @@
         <v>50</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -2219,7 +2305,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="45" t="s">
         <v>69</v>
       </c>
       <c r="H31" s="19"/>
@@ -2230,7 +2316,7 @@
         <v>50</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -2251,7 +2337,7 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="45" t="s">
         <v>70</v>
       </c>
       <c r="H32" s="35" t="s">
@@ -2264,7 +2350,7 @@
         <v>50</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -2285,7 +2371,7 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="45" t="s">
         <v>70</v>
       </c>
       <c r="H33" s="19"/>
@@ -2296,50 +2382,82 @@
         <v>50</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="4">
-        <f>SUM(F8:F33)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B35" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
+      <c r="B34" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="58">
+        <v>45754</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="58">
+        <v>45754</v>
+      </c>
+      <c r="F34" s="60">
+        <f>DAYS360(C34,E34)+1</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
+      <c r="C35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="4">
+        <f>SUM(F8:F34)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B36" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-    </row>
-    <row r="36" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B36" s="53" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
+      <c r="B37" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-    </row>
-    <row r="47" spans="2:12">
-      <c r="I47" s="2" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="I48" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2347,13 +2465,13 @@
   <mergeCells count="5">
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B35:K35"/>
     <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
   <si>
     <t>3주차</t>
   </si>
@@ -168,10 +168,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 주제선정 / 분석,설계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -199,13 +195,6 @@
   </si>
   <si>
     <t>3차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC PJ</t>
-  </si>
-  <si>
-    <t>DC PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -465,16 +454,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2/27(목)5-8
-취업세미나
-(날짜변경)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>보그 PJ 상세코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -507,6 +486,40 @@
   <si>
     <t>수료식
 4/7(월)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/27(목)5-8
+취업세미나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ, DC PJ 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC PJ / 파일럿 PJ
+2차 PJ 팔로우업</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종업데이트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -922,13 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,9 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,15 +1019,39 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,31 +1073,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1384,8 +1397,8 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1406,41 +1419,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="B2" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1464,764 +1477,764 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="21">
         <v>45561</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="D5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="21">
         <v>45562</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="28"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="21">
         <v>45565</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21">
         <v>45569</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="28"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="21">
         <v>45572</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="21">
         <v>45573</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="28"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>45575</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="21">
         <v>45576</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="23">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="27" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="28"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="34">
         <v>45579</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="D9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="34">
         <v>45583</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="36">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="42"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="34">
         <v>45586</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="D10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="34">
         <v>45590</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="42"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="34">
         <v>45593</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="37">
+      <c r="D11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="34">
         <v>45597</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="36">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="42"/>
+      <c r="G11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="34">
         <v>45600</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="37">
+      <c r="D12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="34">
         <v>45604</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="42"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="34">
         <v>45607</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="37">
+      <c r="D13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="34">
         <v>45611</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="42"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="34">
         <v>45614</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="D14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="34">
         <v>45618</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="36">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>94</v>
+      <c r="H14" s="43"/>
+      <c r="I14" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="34">
         <v>45621</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="D15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="34">
         <v>45625</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="42"/>
+      <c r="G15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="34">
         <v>45628</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="D16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="34">
         <v>45632</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="42"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="34">
         <v>45635</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="37">
+      <c r="D17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="34">
         <v>45639</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="36">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="42"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="34">
         <v>45642</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="D18" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="34">
         <v>45646</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="36">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="42"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="34">
         <v>45649</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="37">
+      <c r="D19" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="34">
         <v>45653</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="36">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="42"/>
+      <c r="H19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="34">
         <v>45656</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="D20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="34">
         <v>45660</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="36">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="41" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="L20" s="42"/>
+      <c r="K20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="34">
         <v>45663</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="37">
+      <c r="D21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="34">
         <v>45667</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="42"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="34">
         <v>45670</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="37">
+      <c r="D22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="34">
         <v>45674</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="42"/>
+      <c r="G22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="34">
         <v>45677</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="37">
+      <c r="D23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="34">
         <v>45681</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="42"/>
+      <c r="K23" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="34">
         <v>45684</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="37">
+      <c r="D24" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="34">
         <v>45688</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="36">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="42"/>
+      <c r="G24" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="34">
         <v>45691</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="30">
+      <c r="D25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="34">
         <v>45695</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="47"/>
+      <c r="G25" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="34">
         <v>45698</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="34">
         <v>45702</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="16"/>
+      <c r="G26" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="34">
         <v>45705</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="D27" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="34">
         <v>45709</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="14" t="s">
+      <c r="G27" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" s="18"/>
+      <c r="K27" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="28">
         <v>45712</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="D28" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="28">
         <v>45716</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="30">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>110</v>
+      <c r="G28" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="63" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
@@ -2237,24 +2250,24 @@
       <c r="E29" s="11">
         <v>45723</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="14" t="s">
-        <v>43</v>
-      </c>
       <c r="J29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L29" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" ht="56.45" customHeight="1">
       <c r="B30" s="10" t="s">
@@ -2273,20 +2286,20 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="17"/>
+      <c r="G30" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="16"/>
       <c r="I30" s="14" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L30" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" ht="56.45" customHeight="1">
       <c r="B31" s="10" t="s">
@@ -2305,20 +2318,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="19"/>
+      <c r="G31" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="17"/>
       <c r="I31" s="14" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" ht="56.45" customHeight="1">
       <c r="B32" s="10" t="s">
@@ -2337,22 +2350,22 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>71</v>
+      <c r="G32" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="2:12" ht="56.45" customHeight="1">
       <c r="B33" s="10" t="s">
@@ -2371,53 +2384,53 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="14" t="s">
-        <v>51</v>
+      <c r="G33" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="65" t="s">
+        <v>121</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="58">
+      <c r="B34" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="47">
         <v>45754</v>
       </c>
-      <c r="D34" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="58">
+      <c r="D34" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="47">
         <v>45754</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="49">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="J34" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="65" t="s">
-        <v>119</v>
+      <c r="G34" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="54" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2429,36 +2442,36 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
+      <c r="B37" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="48" spans="2:12">
       <c r="I48" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -628,7 +628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,12 +661,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -944,28 +938,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,31 +974,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,10 +1007,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,7 +1040,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,17 +1073,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1398,7 +1392,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1419,41 +1413,41 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1477,797 +1471,797 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>45561</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="20">
         <v>45562</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="25" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>45565</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="D6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="20">
         <v>45569</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="25" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>45572</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="D7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20">
         <v>45573</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="25" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>45575</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="D8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="20">
         <v>45576</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="25" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>45579</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="D9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="33">
         <v>45583</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="35" t="s">
+      <c r="H9" s="36"/>
+      <c r="I9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>45586</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="33">
         <v>45590</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="35" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>45593</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="D11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="33">
         <v>45597</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="35" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="39"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <v>45600</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="34">
+      <c r="D12" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="33">
         <v>45604</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="35" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="39"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>45607</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="34">
+      <c r="D13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="33">
         <v>45611</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="35" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>45614</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="33">
         <v>45618</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="35" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>45621</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="D15" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="33">
         <v>45625</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="36"/>
+      <c r="I15" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>45628</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="D16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="33">
         <v>45632</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="36"/>
+      <c r="I16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>45635</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="34">
+      <c r="D17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="33">
         <v>45639</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38" t="s">
+      <c r="H17" s="36"/>
+      <c r="I17" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <v>45642</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="D18" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="33">
         <v>45646</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="36"/>
+      <c r="I18" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="39"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <v>45649</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="D19" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="33">
         <v>45653</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="39"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>45656</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="34">
+      <c r="D20" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="33">
         <v>45660</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="39"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="33">
         <v>45663</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="34">
+      <c r="D21" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="33">
         <v>45667</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="39"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="33">
         <v>45670</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="34">
+      <c r="D22" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="33">
         <v>45674</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38" t="s">
+      <c r="H22" s="36"/>
+      <c r="I22" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="39"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="33">
         <v>45677</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="34">
+      <c r="D23" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="33">
         <v>45681</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38" t="s">
+      <c r="H23" s="36"/>
+      <c r="I23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="39"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="33">
         <v>45684</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="34">
+      <c r="D24" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="33">
         <v>45688</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="38" t="s">
+      <c r="H24" s="42"/>
+      <c r="I24" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="39"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <v>45691</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="34">
+      <c r="D25" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="33">
         <v>45695</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37" t="s">
+      <c r="H25" s="36"/>
+      <c r="I25" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="39"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <v>45698</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="34">
+      <c r="D26" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="33">
         <v>45702</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="39"/>
+      <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <v>45705</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="34">
+      <c r="D27" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="33">
         <v>45709</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="37" t="s">
+      <c r="H27" s="42"/>
+      <c r="I27" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K27" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="64"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" ht="56.45" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="33">
         <v>45712</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="28">
+      <c r="D28" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="33">
         <v>45716</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="35">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="45" t="s">
+      <c r="H28" s="65"/>
+      <c r="I28" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="43" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="27">
         <v>45720</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="D29" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="27">
         <v>45723</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="29">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="14" t="s">
+      <c r="H29" s="54"/>
+      <c r="I29" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="18"/>
+      <c r="L29" s="64"/>
     </row>
     <row r="30" spans="1:12" ht="56.45" customHeight="1">
       <c r="B30" s="10" t="s">
@@ -2286,7 +2280,7 @@
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="41" t="s">
         <v>65</v>
       </c>
       <c r="H30" s="16"/>
@@ -2318,7 +2312,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="41" t="s">
         <v>66</v>
       </c>
       <c r="H31" s="17"/>
@@ -2350,10 +2344,10 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="31" t="s">
         <v>68</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -2384,11 +2378,11 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="41" t="s">
         <v>67</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="56" t="s">
         <v>121</v>
       </c>
       <c r="J33" s="12" t="s">
@@ -2400,36 +2394,36 @@
       <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="46">
         <v>45754</v>
       </c>
-      <c r="D34" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="47">
+      <c r="D34" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="46">
         <v>45754</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="48">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52" t="s">
+      <c r="H34" s="50"/>
+      <c r="I34" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="53" t="s">
+      <c r="K34" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="54" t="s">
+      <c r="L34" s="53" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2442,32 +2436,32 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
     </row>
     <row r="48" spans="2:12">
       <c r="I48" s="2" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RV-TOM-2024_주단위상세일정.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\프론트엔드_탐쌤\FED-RV-TOM-2024\000.커리큐럼\주단위상세일정엑셀\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="225" windowWidth="19380" windowHeight="8895"/>
+    <workbookView xWindow="600" yWindow="227" windowWidth="19380" windowHeight="8893"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
@@ -526,7 +521,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -929,9 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,15 +1035,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,11 +1068,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1142,7 +1137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1177,7 +1172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1391,27 +1386,27 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.38671875" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.38671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="61" t="s">
         <v>54</v>
@@ -1471,829 +1466,829 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>45561</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="19">
         <v>45562</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="24" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="25"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>45565</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="19">
         <v>45569</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <f>DAYS360(C6,E6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="24" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="25"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="48" hidden="1" customHeight="1">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>45572</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="D7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="19">
         <v>45573</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <f>DAYS360(C7,E7)+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="24" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>45575</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="D8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="19">
         <v>45576</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="24" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="25"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>45579</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="33">
+      <c r="D9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="32">
         <v>45583</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <f t="shared" ref="F9:F31" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <v>45586</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="32">
         <v>45590</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="34" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>45593</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="D11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="32">
         <v>45597</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <f>DAYS360(C11,E11)+2</f>
         <v>5</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="34" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>45600</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="D12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="32">
         <v>45604</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="34" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>45607</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="D13" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="32">
         <v>45611</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="34" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>45614</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="D14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="32">
         <v>45618</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="34" t="s">
+      <c r="H14" s="41"/>
+      <c r="I14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="42" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <v>45621</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="D15" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="32">
         <v>45625</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <v>45628</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="33">
+      <c r="D16" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="32">
         <v>45632</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37" t="s">
+      <c r="H16" s="35"/>
+      <c r="I16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>45635</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="D17" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="32">
         <v>45639</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37" t="s">
+      <c r="H17" s="35"/>
+      <c r="I17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <v>45642</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="D18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="32">
         <v>45646</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="34">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37" t="s">
+      <c r="H18" s="35"/>
+      <c r="I18" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <v>45649</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="D19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="32">
         <v>45653</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>45656</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="D20" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="32">
         <v>45660</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <f>DAYS360(C20,E20)+1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <v>45663</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="D21" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="32">
         <v>45667</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37" t="s">
+      <c r="H21" s="35"/>
+      <c r="I21" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="38"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <v>45670</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="33">
+      <c r="D22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="32">
         <v>45674</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37" t="s">
+      <c r="H22" s="35"/>
+      <c r="I22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="38"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="32">
         <v>45677</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="D23" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="32">
         <v>45681</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="37"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="32">
         <v>45684</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="33">
+      <c r="D24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="32">
         <v>45688</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <f>DAYS360(C24,E24)-2</f>
         <v>2</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="37" t="s">
+      <c r="H24" s="41"/>
+      <c r="I24" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="32">
         <v>45691</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="D25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="32">
         <v>45695</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="37"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <v>45698</v>
       </c>
-      <c r="D26" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="33">
+      <c r="D26" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="32">
         <v>45702</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="37" t="s">
+      <c r="K26" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L26" s="38"/>
+      <c r="L26" s="37"/>
     </row>
     <row r="27" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="32">
         <v>45705</v>
       </c>
-      <c r="D27" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="33">
+      <c r="D27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="32">
         <v>45709</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="36" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K27" s="37" t="s">
+      <c r="K27" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="55"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <v>45712</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="33">
+      <c r="D28" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="32">
         <v>45716</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="34">
         <f>DAYS360(C28,E28)+1</f>
         <v>5</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="36" t="s">
+      <c r="H28" s="56"/>
+      <c r="I28" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="J28" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="K28" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="42" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="56.45" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="32">
         <v>45720</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="27">
+      <c r="D29" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="32">
         <v>45723</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="34">
         <f>DAYS360(C29,E29)+1</f>
         <v>4</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="44" t="s">
+      <c r="H29" s="56"/>
+      <c r="I29" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:12" ht="56.45" customHeight="1">
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="26">
         <v>45726</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="D30" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="26">
         <v>45730</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="28">
         <f>DAYS360(C30,E30)+1</f>
         <v>5</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="14" t="s">
+      <c r="H30" s="64"/>
+      <c r="I30" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="18"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="1:12" ht="56.45" customHeight="1">
       <c r="B31" s="10" t="s">
@@ -2312,10 +2307,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="17"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="14" t="s">
         <v>119</v>
       </c>
@@ -2325,7 +2320,7 @@
       <c r="K31" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="18"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" ht="56.45" customHeight="1">
       <c r="B32" s="10" t="s">
@@ -2344,10 +2339,10 @@
         <f>DAYS360(C32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="30" t="s">
         <v>68</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -2359,7 +2354,7 @@
       <c r="K32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="18"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="2:12" ht="56.45" customHeight="1">
       <c r="B33" s="10" t="s">
@@ -2378,11 +2373,11 @@
         <f>DAYS360(C33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="56" t="s">
+      <c r="H33" s="16"/>
+      <c r="I33" s="54" t="s">
         <v>121</v>
       </c>
       <c r="J33" s="12" t="s">
@@ -2391,39 +2386,39 @@
       <c r="K33" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L33" s="18"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="2:12" ht="56.45" customHeight="1" thickBot="1">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="45">
         <v>45754</v>
       </c>
-      <c r="D34" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="46">
+      <c r="D34" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="45">
         <v>45754</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="47">
         <f>DAYS360(C34,E34)+1</f>
         <v>1</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51" t="s">
+      <c r="H34" s="49"/>
+      <c r="I34" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="53" t="s">
+      <c r="L34" s="52" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2449,7 +2444,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
     </row>
-    <row r="37" spans="2:12" s="5" customFormat="1" ht="20.25">
+    <row r="37" spans="2:12" s="5" customFormat="1" ht="21">
       <c r="B37" s="60" t="s">
         <v>56</v>
       </c>
@@ -2488,7 +2483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,7 +2496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.7"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
